--- a/txt/subject list.xlsx
+++ b/txt/subject list.xlsx
@@ -5,27 +5,39 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Server\htdocs\jsssms\txt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Server\htdocs\jss\txt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5CBF95-801E-4002-B29C-19518958C864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34DE1076-BFF9-49B9-8B07-C87E7DB8C4A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="26">
   <si>
     <t>Class</t>
   </si>
@@ -80,18 +92,49 @@
   <si>
     <t>id</t>
   </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>ststus</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,8 +157,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1476,4 +1520,1026 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC2AECCB-8C35-4F40-9391-61FDD0BD971F}">
+  <dimension ref="A1:L31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>107</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>108</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>100</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>127</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>154</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>136</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>50</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>102</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>107</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>108</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>50</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>100</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>111</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>100</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>150</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18">
+        <v>100</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>100</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>154</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>147</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>50</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>102</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>50</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>108</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25">
+        <v>50</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>109</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>111</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>100</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>150</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28">
+        <v>100</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>100</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>154</v>
+      </c>
+      <c r="E30" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>50</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31">
+        <v>50</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>